--- a/medicine/Enfance/La_Rivière_à_l'envers/La_Rivière_à_l'envers.xlsx
+++ b/medicine/Enfance/La_Rivière_à_l'envers/La_Rivière_à_l'envers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
+          <t>La_Rivière_à_l'envers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Rivière à l'envers est un roman jeunesse écrit par Jean-Claude Mourlevat[1]. Il se compose de deux tomes, Tomek (paru en 2000[2] et Hannah (paru en 2001)[3]; une version intégrale a également été publiée en novembre 2016[4].
-Lauréat du Prix des incorruptibles en 2002, le livre a été adapté au théâtre par la compagnie Mad&amp;Gus, le premier tome en 2016 et le second en 2018[5].
+La Rivière à l'envers est un roman jeunesse écrit par Jean-Claude Mourlevat. Il se compose de deux tomes, Tomek (paru en 2000 et Hannah (paru en 2001); une version intégrale a également été publiée en novembre 2016.
+Lauréat du Prix des incorruptibles en 2002, le livre a été adapté au théâtre par la compagnie Mad&amp;Gus, le premier tome en 2016 et le second en 2018.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
+          <t>La_Rivière_à_l'envers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Tome 1 : Tomek</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'histoire se passe en un temps où les jeux télévisés n'existaient pas, ni les grandes surfaces, ni même les téléphones portables. Tomek, jeune orphelin de 13 ans, tient la petite épicerie de son village . Un soir, une mystérieuse jeune fille (Hannah), entre dans sa boutique et lui demande s'il vend de l'eau de la Rivière Qjar: «C'est l'eau qui empêche de mourir, vous ne le saviez pas?» Tomek lui répond qu'il ne connaît pas cette eau et la jeune fille s'en va. Tomek décide alors d'entamer la plus grande aventure de sa vie. Il traversera des contrées incroyables, telles que la Forêt de l'Oubli, le village des Parfumeurs, l'île Inexistante... Réussira-t-il à rejoindre Hannah à l'autre bout du monde? Trouvera-t-il la Rivière Qjar, cette rivière magique qui coule à l'envers? Parviendra t-il à sauver la passerine d'Hannah? À rapporter de l'eau au Vieux Icham[6]?
-Personnages
-Tomek — Il a 13 ans. Il tient une épicerie. Il veut toujours partir à l'aventure car son village est trop petit, mais il a peur de ce que penseraient les personnes qui vivent dans son village.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire se passe en un temps où les jeux télévisés n'existaient pas, ni les grandes surfaces, ni même les téléphones portables. Tomek, jeune orphelin de 13 ans, tient la petite épicerie de son village . Un soir, une mystérieuse jeune fille (Hannah), entre dans sa boutique et lui demande s'il vend de l'eau de la Rivière Qjar: «C'est l'eau qui empêche de mourir, vous ne le saviez pas?» Tomek lui répond qu'il ne connaît pas cette eau et la jeune fille s'en va. Tomek décide alors d'entamer la plus grande aventure de sa vie. Il traversera des contrées incroyables, telles que la Forêt de l'Oubli, le village des Parfumeurs, l'île Inexistante... Réussira-t-il à rejoindre Hannah à l'autre bout du monde? Trouvera-t-il la Rivière Qjar, cette rivière magique qui coule à l'envers? Parviendra t-il à sauver la passerine d'Hannah? À rapporter de l'eau au Vieux Icham?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>La_Rivière_à_l'envers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tome 1 : Tomek</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tomek — Il a 13 ans. Il tient une épicerie. Il veut toujours partir à l'aventure car son village est trop petit, mais il a peur de ce que penseraient les personnes qui vivent dans son village.
 Hannah — Bien-aimée de Tomek. Elle a 12 ans. Elle cherche l'eau de la rivière Qjar pour sa petite passerine, seul souvenir qui lui reste de sa famille. Cet oiseau, malade, risque de mourir.
 Marie — Marie est une femme âgée et mal habillée. Elle traverse la forêt de l'Oubli avec Tomek car son petit ami est mort au-delà de celle-ci.
 Viel Icham — C'est un vieil homme gourmand, il préfère le nougat. Il se considère comme le grand-père de Tomek. Il est écrivain public.
@@ -530,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Rivière_à_l'envers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Tome 2 : Hannah</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les ans, le père d’Hannah lui offre un oiseau au marché aux oiseaux où les gens viennent de partout. Le jour de ses six ans, son père lui offre une passerine. L’oiseleur demande 500 000 livres et une bouteille de rhum. Le père d’Hannah qui a besoin de plusieurs jours pour payer vend tous ses biens et perd sa famille. Hannah vit seule avec son père devenu homme-cheval. Un jour, il meurt de fatigue alors qu’Hannah n’a que 9 ans. Des parents lointains l’adoptent. Alors qu’Hannah a 12 ans, sa passerine tombe gravement malade. Afin de sauver son oiseau, Hannah se lance à la recherche de la rivière Qjar, une rivière qui rend immortel quiconque boit de son eau.
 Elle commence son voyage avec Iorim et Grégoire à bord e l’Hirondelle, leur diligence jusqu’au désert de Ban Baïtan. On apprend que Iorim s'y rend pour mourir sur sa terre natale et Grégoire l'accompagne.
@@ -566,33 +617,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Rivière_à_l'envers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_Rivi%C3%A8re_%C3%A0_l%27envers</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2002 - Prix des Incorruptibles[7]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2002 - Prix des Incorruptibles</t>
         </is>
       </c>
     </row>
